--- a/Funkcionalnosti.xlsx
+++ b/Funkcionalnosti.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20396"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BEF0E5F-AA82-42D8-8AFC-32F3B5E381C9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97DF2487-ACEC-4F88-9653-56CBF1752584}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Prijavljivanje korisnika</t>
   </si>
@@ -50,6 +50,9 @@
   </si>
   <si>
     <t>Autor:</t>
+  </si>
+  <si>
+    <t>Stranica za Dobrodoslicu</t>
   </si>
 </sst>
 </file>
@@ -367,10 +370,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -427,6 +430,11 @@
         <v>7</v>
       </c>
     </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
